--- a/cypress/fixtures/testdata/test data.xlsx
+++ b/cypress/fixtures/testdata/test data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
   <si>
     <t>username</t>
   </si>
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,6 +384,38 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>1</v>
       </c>
     </row>
